--- a/Brain/Outsystems/Associate Reactive Developer/Brain/Dependency.xlsx
+++ b/Brain/Outsystems/Associate Reactive Developer/Brain/Dependency.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Outsystems\Associate Reactive Developer\Brain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148AB6E8-AEA8-41D0-8E64-0788325D9CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2AD227-6B36-4612-A79A-6EBFF49D10EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="without error" sheetId="1" r:id="rId1"/>
+    <sheet name="error" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>in the PFAC_BackEnd module</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>it does not require to refresh dependencies of the PFAC_FrontEnd module before publishing it</t>
+  </si>
+  <si>
+    <t>publish this module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the PFAC_BackEnd module, I delete the output parameter of the CreateOrUpdateWC server action </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and in the PFAC_FrontEnd module, I don’t refresh its dependencies </t>
+  </si>
+  <si>
+    <t>I just changed a small part of this module and then clicked on the publish button</t>
+  </si>
+  <si>
+    <t>an error occurred</t>
   </si>
 </sst>
 </file>
@@ -408,6 +423,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>569600</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>36905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DBA6BE-854E-484C-9E1C-FF3989AD0A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29718000"/>
+          <a:ext cx="15200000" cy="9561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -417,57 +476,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>569600</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>36905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA165DF-EFD4-464A-8FF6-0502A7D89BD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="1524000"/>
-          <a:ext cx="15200000" cy="9561905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>360000</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>8548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -484,7 +499,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -493,6 +508,138 @@
         <a:xfrm>
           <a:off x="609600" y="11811000"/>
           <a:ext cx="15600000" cy="7819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342324</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1A1B92-40BF-BA95-7EA8-694E474D19F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8191500"/>
+          <a:ext cx="4609524" cy="1704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>160000</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>141976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BCEAA5-8460-4822-AC61-E463E64D3E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11620500"/>
+          <a:ext cx="15400000" cy="7190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342324</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>180762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CAD137-7BD5-41F3-B204-12471CEA5844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="19621500"/>
+          <a:ext cx="4609524" cy="1704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -767,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,6 +988,46 @@
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -852,52 +1039,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013B9DD4-9597-4D19-A3C3-03CDE509DACF}">
-  <dimension ref="A1:A62"/>
+  <dimension ref="A58:A103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
